--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/CollegeBoreal/19A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519EFB1E-2DDA-534B-974D-6EE1BDC2F529}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F3131-9D4D-DA4E-AA1D-CF1B8EE02425}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="1560" windowWidth="20200" windowHeight="16340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27380" yWindow="5280" windowWidth="24580" windowHeight="19200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Accepté</t>
   </si>
   <si>
-    <t>Selom Kounestron</t>
-  </si>
-  <si>
     <t>Jean-Marc Ngom</t>
   </si>
   <si>
@@ -176,20 +173,23 @@
     <t> Administration Windows</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocky </t>
-  </si>
-  <si>
     <t>INF1085</t>
   </si>
   <si>
     <t> Administration Linux</t>
+  </si>
+  <si>
+    <t>Anselme Ndabigengesere</t>
+  </si>
+  <si>
+    <t>Rocky Nthoubanza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +261,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -456,7 +462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -514,25 +520,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2040,7 +2047,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1044 - 2</a:t>
+            <a:t>INF1084 - 2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2109,7 +2116,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Logiciels de développement</a:t>
+            <a:t>Administration Windows</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2123,7 +2130,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>R. Talih</a:t>
+            <a:t>JM. Ngom</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2449,174 +2456,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2408766"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ZoneTexte 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6847416" y="2396067"/>
-          <a:ext cx="2870200" cy="2408766"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1018 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Formation aux usagers</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>G. Shiri</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -2794,174 +2633,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2423584"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3979333" y="2381249"/>
-          <a:ext cx="2870200" cy="2423584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> INF1046 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Développement d'applications multimédia</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Nthoubanza</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33868</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -3191,7 +2862,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1044 - 2</a:t>
+            <a:t>INF1084 - 2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -3260,7 +2931,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Logiciels de développement</a:t>
+            <a:t>Administration Windows</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3274,7 +2945,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>R. Talih</a:t>
+            <a:t>JM. Ngom</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4917,6 +4588,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4924,12 +4601,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4944,8 +4615,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5578,6 +5249,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5585,12 +5262,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5602,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92056296-64B8-C847-8C9F-FFFE43E57545}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5663,8 +5334,8 @@
       <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>39</v>
+      <c r="C5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -5676,7 +5347,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -5714,7 +5385,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="31"/>
     </row>
@@ -5763,10 +5434,10 @@
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>35</v>
@@ -5777,22 +5448,22 @@
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>35</v>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300098957\Developer\CollegeBoreal\19A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F3131-9D4D-DA4E-AA1D-CF1B8EE02425}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27380" yWindow="5280" windowWidth="24580" windowHeight="19200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27375" yWindow="5280" windowWidth="24585" windowHeight="19200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -188,8 +187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,6 +510,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,26 +520,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,9 +737,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2336800"/>
@@ -757,7 +756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="4203700"/>
+          <a:off x="6851650" y="1876425"/>
           <a:ext cx="2870200" cy="2336800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -806,8 +805,12 @@
             </a:rPr>
             <a:t>FRA1005 - 15</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -821,8 +824,12 @@
             </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -836,8 +843,12 @@
             </a:rPr>
             <a:t>TO - 3242 </a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -850,6 +861,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Français I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -942,8 +957,12 @@
             </a:rPr>
             <a:t>MAT1018 - 2</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -957,8 +976,12 @@
             </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -971,6 +994,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1339,10 +1366,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -1358,7 +1385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="4597400"/>
+          <a:off x="1085850" y="4572000"/>
           <a:ext cx="2870200" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1451,7 +1478,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1911,8 +1938,12 @@
             </a:rPr>
             <a:t>MAT1018 - 2</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1926,8 +1957,12 @@
             </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-          <a:br>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1940,6 +1975,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -3948,24 +3987,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3988,8 +4025,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="33">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4001,8 +4038,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4012,8 +4049,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -4023,8 +4060,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4034,8 +4071,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="33">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -4047,8 +4084,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -4058,8 +4095,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -4069,8 +4106,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -4080,8 +4117,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="33">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4093,8 +4130,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -4104,8 +4141,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -4115,8 +4152,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4163,8 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="33">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4139,8 +4176,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4150,8 +4187,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -4161,8 +4198,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -4172,8 +4209,8 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="33">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -4185,8 +4222,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4196,8 +4233,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1">
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -4207,8 +4244,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -4218,8 +4255,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="33">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -4231,8 +4268,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4242,8 +4279,8 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -4253,8 +4290,8 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4264,8 +4301,8 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
+      <c r="A26" s="33">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -4277,8 +4314,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4288,8 +4325,8 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -4299,8 +4336,8 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4310,8 +4347,8 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="33">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4323,8 +4360,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -4334,8 +4371,8 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -4345,8 +4382,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A33" s="35"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4393,8 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="33">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -4369,8 +4406,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -4380,8 +4417,8 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -4391,8 +4428,8 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4402,8 +4439,8 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="33">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -4415,8 +4452,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -4426,8 +4463,8 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
+      <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
@@ -4437,8 +4474,8 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
@@ -4448,8 +4485,8 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="33">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -4461,8 +4498,8 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
@@ -4472,8 +4509,8 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
@@ -4483,8 +4520,8 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
@@ -4494,8 +4531,8 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+    <row r="46" spans="1:7" ht="15" customHeight="1">
+      <c r="A46" s="33">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -4507,8 +4544,8 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -4518,8 +4555,8 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
@@ -4529,8 +4566,8 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
@@ -4540,8 +4577,8 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="33">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -4553,8 +4590,8 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
@@ -4564,8 +4601,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
@@ -4575,8 +4612,8 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+    <row r="53" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
@@ -4588,12 +4625,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4601,6 +4632,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4609,24 +4646,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4649,8 +4686,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+    <row r="2" spans="1:7">
+      <c r="A2" s="33">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4662,8 +4699,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4673,8 +4710,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -4684,8 +4721,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4695,8 +4732,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+    <row r="6" spans="1:7">
+      <c r="A6" s="33">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -4708,8 +4745,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -4719,8 +4756,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -4730,8 +4767,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -4741,8 +4778,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+    <row r="10" spans="1:7">
+      <c r="A10" s="33">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4754,8 +4791,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -4765,8 +4802,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -4776,8 +4813,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -4787,8 +4824,8 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+    <row r="14" spans="1:7">
+      <c r="A14" s="33">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4800,8 +4837,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4811,8 +4848,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -4822,8 +4859,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -4833,8 +4870,8 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+    <row r="18" spans="1:7">
+      <c r="A18" s="33">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -4846,8 +4883,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4857,8 +4894,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -4868,8 +4905,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -4879,8 +4916,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+    <row r="22" spans="1:7">
+      <c r="A22" s="33">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -4892,8 +4929,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4903,8 +4940,8 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -4914,8 +4951,8 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4925,8 +4962,8 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+    <row r="26" spans="1:7">
+      <c r="A26" s="33">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -4938,8 +4975,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4949,8 +4986,8 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -4960,8 +4997,8 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4971,8 +5008,8 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+    <row r="30" spans="1:7">
+      <c r="A30" s="33">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4984,8 +5021,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -4995,8 +5032,8 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -5006,8 +5043,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A33" s="35"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -5017,8 +5054,8 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+    <row r="34" spans="1:7">
+      <c r="A34" s="33">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -5030,8 +5067,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5041,8 +5078,8 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -5052,8 +5089,8 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5100,8 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+    <row r="38" spans="1:7">
+      <c r="A38" s="33">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -5076,8 +5113,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -5087,8 +5124,8 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
@@ -5098,8 +5135,8 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
@@ -5109,8 +5146,8 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+    <row r="42" spans="1:7">
+      <c r="A42" s="33">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5122,8 +5159,8 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
@@ -5133,8 +5170,8 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
@@ -5144,8 +5181,8 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
@@ -5155,8 +5192,8 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+    <row r="46" spans="1:7">
+      <c r="A46" s="33">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -5168,8 +5205,8 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -5179,8 +5216,8 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
@@ -5190,8 +5227,8 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
@@ -5201,8 +5238,8 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+    <row r="50" spans="1:7">
+      <c r="A50" s="33">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -5214,8 +5251,8 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
@@ -5225,8 +5262,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
@@ -5236,8 +5273,8 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+    <row r="53" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5249,12 +5286,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5262,6 +5293,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5270,26 +5307,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92056296-64B8-C847-8C9F-FFFE43E57545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+    <col min="2" max="2" width="58.875" customWidth="1"/>
     <col min="3" max="3" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="23.25">
       <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20.25">
       <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -5317,7 +5354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.25">
       <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
@@ -5327,19 +5364,19 @@
       <c r="C4" s="23"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.25">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -5351,7 +5388,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20.25">
       <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
@@ -5365,7 +5402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.25">
       <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
@@ -5377,7 +5414,7 @@
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20.25">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -5389,12 +5426,12 @@
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="23.25">
       <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20.25">
       <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
@@ -5408,7 +5445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20.25">
       <c r="A13" s="27" t="s">
         <v>27</v>
       </c>
@@ -5420,7 +5457,7 @@
       </c>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20.25">
       <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
@@ -5432,7 +5469,7 @@
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20.25">
       <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
@@ -5446,7 +5483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20.25">
       <c r="A16" s="27" t="s">
         <v>44</v>
       </c>
@@ -5458,7 +5495,7 @@
       </c>
       <c r="D16" s="25"/>
     </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20.25">
       <c r="A17" s="24" t="s">
         <v>46</v>
       </c>
@@ -5472,12 +5509,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://github.com/CollegeBoreal/INF1039-201-17A-02" xr:uid="{76A6D8E8-CFA2-9341-9B85-17B69C7DF6F3}"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://github.com/CollegeBoreal/INF1040-201-17A-02" xr:uid="{46245675-1A13-9142-A69A-34CB0F2270AF}"/>
-    <hyperlink ref="A13" r:id="rId3" display="https://github.com/CollegeBoreal/INF1006-201-17A-02" xr:uid="{7AE9F1F7-965E-7B45-9BF4-14A524927B69}"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://github.com/CollegeBoreal/INF1023-201-17A-02" xr:uid="{3A1E0AA7-6B7D-3545-B2E9-DEEF339284B3}"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://github.com/CollegeBoreal/INF1045-201-17A-02" xr:uid="{8F4052E7-2CD0-8E44-B579-23968BE97068}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://github.com/CollegeBoreal/INF1044-201-17A-02" xr:uid="{3E5408E0-90AE-5F48-ACF8-F7984A0E4423}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://github.com/CollegeBoreal/INF1039-201-17A-02"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://github.com/CollegeBoreal/INF1040-201-17A-02"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://github.com/CollegeBoreal/INF1006-201-17A-02"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://github.com/CollegeBoreal/INF1023-201-17A-02"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://github.com/CollegeBoreal/INF1045-201-17A-02"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://github.com/CollegeBoreal/INF1044-201-17A-02"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -570,8 +570,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1485900"/>
@@ -588,7 +588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="8877300"/>
+          <a:off x="3971925" y="3835400"/>
           <a:ext cx="2870200" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -681,7 +681,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215</a:t>
+            <a:t>TO - 3248</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -727,7 +727,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>J. Ngom</a:t>
+            <a:t>L.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kanaki</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -803,7 +815,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FRA1005 - 15</a:t>
+            <a:t>FRA1005 - 33</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -889,10 +901,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1562100"/>
     <xdr:sp macro="" textlink="">
@@ -908,7 +920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3949700" y="7302500"/>
+          <a:off x="3984625" y="6877050"/>
           <a:ext cx="2870200" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -955,7 +967,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>MAT1018 - 2</a:t>
+            <a:t>MAT1018 - 1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -993,7 +1005,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1018,7 +1030,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S. Kounestron</a:t>
+            <a:t>A. Ndabigengesere</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1031,11 +1043,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2057400"/>
+    <xdr:ext cx="2870200" cy="1543050"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6">
@@ -1049,8 +1061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="7683500"/>
-          <a:ext cx="2870200" cy="2057400"/>
+          <a:off x="1085850" y="8858250"/>
+          <a:ext cx="2870200" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,7 +1108,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1074 - 2</a:t>
+            <a:t>INF1074 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1142,7 +1154,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1199,11 +1211,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2044700"/>
+    <xdr:ext cx="2870200" cy="1552575"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7">
@@ -1217,8 +1229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6845300" y="7696200"/>
-          <a:ext cx="2870200" cy="2044700"/>
+          <a:off x="9705975" y="8772525"/>
+          <a:ext cx="2870200" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1264,7 +1276,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> INF1074 - 2</a:t>
+            <a:t> INF1074 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1310,7 +1322,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1366,12 +1378,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2324100"/>
+    <xdr:ext cx="2870200" cy="1514475"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="ZoneTexte 10">
@@ -1385,8 +1397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="4572000"/>
-          <a:ext cx="2870200" cy="2324100"/>
+          <a:off x="6867525" y="6505575"/>
+          <a:ext cx="2870200" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,12 +1546,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="3060700"/>
+    <xdr:ext cx="2870200" cy="1552575"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -1553,8 +1565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9728200" y="5372100"/>
-          <a:ext cx="2870200" cy="3060700"/>
+          <a:off x="3981450" y="8877300"/>
+          <a:ext cx="2870200" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,7 +1658,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1692,9 +1704,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>L. Kaniki</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
+            <a:t>R. Nthoubanza</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1702,10 +1716,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2879725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
@@ -1721,7 +1735,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="8839200"/>
+          <a:off x="9728200" y="4549775"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1814,7 +1828,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215</a:t>
+            <a:t>TO - 3248</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1860,7 +1874,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>J. Ngom</a:t>
+            <a:t>L.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kanaki</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1870,10 +1896,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
@@ -1889,7 +1915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12636500" y="7289800"/>
+          <a:off x="9750425" y="6892925"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1936,7 +1962,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>MAT1018 - 2</a:t>
+            <a:t>MAT1018 - 1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1974,7 +2000,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3248 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1999,10 +2025,359 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>S. Kounestron</a:t>
-          </a:r>
+            <a:t>A. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ndabigengesere</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1562100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="8439150"/>
+          <a:ext cx="2870200" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1035 - 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3248 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels d'applications</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Nthoubanza</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1543050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="6896100"/>
+          <a:ext cx="2870200" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1039 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3248 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction aux algorithmes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -2017,9 +2392,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6352</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>201083</xdr:rowOff>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2035,7 +2410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9721852" y="7641166"/>
+          <a:off x="9739169" y="8773582"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2132,7 +2507,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3207 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2178,10 +2553,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10582</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2859424</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2197,7 +2572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3968749" y="5617634"/>
+          <a:off x="3941810" y="4727671"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2290,7 +2665,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3240 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2336,10 +2711,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23285</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23281</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2880785</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2355,7 +2730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6860118" y="5632448"/>
+          <a:off x="6846649" y="4742486"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2448,7 +2823,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3231 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2504,10 +2879,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>346362</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2523,7 +2898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="5619750"/>
+          <a:off x="1073726" y="4747105"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2616,7 +2991,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3217 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2673,9 +3048,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33868</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>203197</xdr:rowOff>
+      <xdr:colOff>7891</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177219</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1670053"/>
     <xdr:sp macro="" textlink="">
@@ -2691,7 +3066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9749368" y="5600697"/>
+          <a:off x="9740709" y="4723242"/>
           <a:ext cx="2870200" cy="1670053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2784,7 +3159,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3239 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2832,8 +3207,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2868083</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>2876742</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>12702</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
@@ -2850,7 +3225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947583" y="7653869"/>
+          <a:off x="3959128" y="8793020"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2947,7 +3322,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3241 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -3105,7 +3480,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3242 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3273,7 +3648,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3242 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3329,10 +3704,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>351365</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>201084</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5003</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3348,7 +3723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071032" y="3153834"/>
+          <a:off x="3970867" y="6764675"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3395,7 +3770,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1048 - 2</a:t>
+            <a:t>INF1083 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3464,7 +3839,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Programmation et scripts</a:t>
+            <a:t>Développement d'applications</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3498,9 +3873,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188770</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3516,7 +3891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="3124202"/>
+          <a:off x="9750136" y="6752361"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3563,7 +3938,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1048 - 2</a:t>
+            <a:t>INF1083 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3632,7 +4007,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Programmation et scripts</a:t>
+            <a:t>Développement d'applications</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3993,7 +4380,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -4625,6 +5012,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4632,12 +5025,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4652,9 +5039,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -5286,6 +5671,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5293,12 +5684,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -569,186 +569,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1485900"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3971925" y="3835400"/>
-          <a:ext cx="2870200" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1040 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction à la réseautique</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Kanaki</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -901,8 +721,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -920,7 +740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3984625" y="6877050"/>
+          <a:off x="1089025" y="6877050"/>
           <a:ext cx="2870200" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,10 +862,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1543050"/>
     <xdr:sp macro="" textlink="">
@@ -1061,7 +881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="8858250"/>
+          <a:off x="1038225" y="8724900"/>
           <a:ext cx="2870200" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1210,10 +1030,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1552575"/>
     <xdr:sp macro="" textlink="">
@@ -1229,7 +1049,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9705975" y="8772525"/>
+          <a:off x="3971925" y="8724900"/>
           <a:ext cx="2870200" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1379,11 +1199,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1514475"/>
+    <xdr:ext cx="2870200" cy="2343150"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="ZoneTexte 10">
@@ -1397,8 +1217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="6505575"/>
-          <a:ext cx="2870200" cy="1514475"/>
+          <a:off x="6858000" y="4972050"/>
+          <a:ext cx="2870200" cy="2343150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,8 +1368,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1552575"/>
     <xdr:sp macro="" textlink="">
@@ -1565,7 +1385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="8877300"/>
+          <a:off x="3981450" y="6896100"/>
           <a:ext cx="2870200" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1716,12 +1536,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2879725</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1574800"/>
+    <xdr:ext cx="2870200" cy="2327275"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="ZoneTexte 12">
@@ -1735,7 +1555,187 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9728200" y="4549775"/>
+          <a:off x="9747250" y="4530724"/>
+          <a:ext cx="2870200" cy="2327275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1040 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à la réseautique</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kanaki</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1574800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA02870-D4E5-D744-A2C4-1AE0DAA09AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6864350" y="7359650"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1782,186 +1782,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1040 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction à la réseautique</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Kanaki</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1574800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA02870-D4E5-D744-A2C4-1AE0DAA09AD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9750425" y="6892925"/>
-          <a:ext cx="2870200" cy="1574800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>MAT1018 - 1</a:t>
           </a:r>
           <a:r>
@@ -2050,10 +1870,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1562100"/>
     <xdr:sp macro="" textlink="">
@@ -2069,7 +1889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6870700" y="8439150"/>
+          <a:off x="9756775" y="7286625"/>
           <a:ext cx="2870200" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2209,174 +2029,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>R. Nthoubanza</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1543050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076325" y="6896100"/>
-          <a:ext cx="2870200" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1039 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Introduction aux algorithmes</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -2711,10 +2363,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2880785</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>196463</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14622</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2730,7 +2382,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6846649" y="4742486"/>
+          <a:off x="6863967" y="2750895"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2880,9 +2532,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>201082</xdr:rowOff>
+      <xdr:colOff>355021</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2898,7 +2550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1073726" y="4747105"/>
+          <a:off x="1082385" y="5180059"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4008,18 +3660,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Développement d'applications</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -4380,7 +4020,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -5012,12 +4652,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5025,6 +4659,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5039,7 +4679,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -5671,12 +5311,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5684,6 +5318,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300098957\Developer\CollegeBoreal\19A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE75C1-7469-6B46-97F9-D20BD9377790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27375" yWindow="5280" windowWidth="24585" windowHeight="19200" tabRatio="500"/>
+    <workbookView xWindow="-50420" yWindow="600" windowWidth="38540" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -187,8 +188,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,23 +523,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,9 +638,20 @@
             </a:rPr>
             <a:t>FRA1005 - 33</a:t>
           </a:r>
-          <a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -654,33 +666,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:r>
+            <a:t>TO - 3242 </a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3242 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -693,10 +682,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Français I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -789,9 +774,20 @@
             </a:rPr>
             <a:t>MAT1018 - 1</a:t>
           </a:r>
-          <a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -806,30 +802,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1547,7 +1520,7 @@
         <xdr:cNvPr id="13" name="ZoneTexte 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3569880E-BA29-604C-99AA-99AA163FD544}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1700,7 @@
         <xdr:cNvPr id="15" name="ZoneTexte 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA02870-D4E5-D744-A2C4-1AE0DAA09AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,9 +1757,20 @@
             </a:rPr>
             <a:t>MAT1018 - 1</a:t>
           </a:r>
-          <a:r>
+          <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1801,30 +1785,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>TO - 3248 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1881,7 +1842,7 @@
         <xdr:cNvPr id="14" name="ZoneTexte 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,10 +2166,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2859424</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>181648</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2882514</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>193192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2224,7 +2185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3941810" y="4727671"/>
+          <a:off x="9740514" y="5342465"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2363,10 +2324,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14626</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2866353</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>14622</xdr:rowOff>
+      <xdr:rowOff>37713</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2382,7 +2343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6863967" y="2750895"/>
+          <a:off x="6837989" y="2866349"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2532,7 +2493,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>355021</xdr:colOff>
+      <xdr:colOff>343475</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>27900</xdr:rowOff>
     </xdr:from>
@@ -2550,7 +2511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1082385" y="5180059"/>
+          <a:off x="1070839" y="5384991"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2699,10 +2660,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7891</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177219</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2871163</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4037</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1670053"/>
     <xdr:sp macro="" textlink="">
@@ -2718,7 +2679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740709" y="4723242"/>
+          <a:off x="3956436" y="5361128"/>
           <a:ext cx="2870200" cy="1670053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3356,10 +3317,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5003</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28092</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198198</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3375,7 +3336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970867" y="6764675"/>
+          <a:off x="9772456" y="7033107"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3524,10 +3485,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>188770</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880591</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15589</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3543,7 +3504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9750136" y="6752361"/>
+          <a:off x="3965864" y="7058316"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4014,22 +3975,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="7" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4052,7 +4013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>8</v>
       </c>
@@ -4065,7 +4026,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4076,7 +4037,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4087,7 +4048,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -4098,7 +4059,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>9</v>
       </c>
@@ -4111,7 +4072,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4122,7 +4083,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4133,7 +4094,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -4144,7 +4105,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>10</v>
       </c>
@@ -4157,7 +4118,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4168,7 +4129,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4179,7 +4140,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -4190,7 +4151,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>11</v>
       </c>
@@ -4203,7 +4164,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4214,7 +4175,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4225,7 +4186,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -4236,7 +4197,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>12</v>
       </c>
@@ -4249,7 +4210,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4260,7 +4221,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4271,7 +4232,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -4282,7 +4243,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>13</v>
       </c>
@@ -4295,7 +4256,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -4306,7 +4267,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -4317,7 +4278,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -4328,7 +4289,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>14</v>
       </c>
@@ -4341,7 +4302,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -4352,7 +4313,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -4363,7 +4324,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -4374,7 +4335,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>15</v>
       </c>
@@ -4387,7 +4348,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -4398,7 +4359,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -4409,7 +4370,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -4420,7 +4381,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>16</v>
       </c>
@@ -4433,7 +4394,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -4444,7 +4405,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -4455,7 +4416,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -4466,7 +4427,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>17</v>
       </c>
@@ -4479,7 +4440,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -4490,7 +4451,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -4501,7 +4462,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -4512,7 +4473,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>18</v>
       </c>
@@ -4525,7 +4486,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -4536,7 +4497,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -4547,7 +4508,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -4558,7 +4519,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>19</v>
       </c>
@@ -4571,7 +4532,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -4582,7 +4543,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -4593,7 +4554,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -4604,7 +4565,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>20</v>
       </c>
@@ -4617,7 +4578,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -4628,7 +4589,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -4639,7 +4600,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="15.95" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -4652,6 +4613,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4659,12 +4626,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4673,22 +4634,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="7" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4711,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>8</v>
       </c>
@@ -4724,7 +4685,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4735,7 +4696,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4746,7 +4707,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -4757,7 +4718,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>9</v>
       </c>
@@ -4770,7 +4731,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4781,7 +4742,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4792,7 +4753,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -4803,7 +4764,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>10</v>
       </c>
@@ -4816,7 +4777,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4827,7 +4788,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4838,7 +4799,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -4849,7 +4810,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>11</v>
       </c>
@@ -4862,7 +4823,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4873,7 +4834,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4884,7 +4845,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -4895,7 +4856,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>12</v>
       </c>
@@ -4908,7 +4869,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4919,7 +4880,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4930,7 +4891,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -4941,7 +4902,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>13</v>
       </c>
@@ -4954,7 +4915,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -4965,7 +4926,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -4976,7 +4937,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -4987,7 +4948,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>14</v>
       </c>
@@ -5000,7 +4961,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -5011,7 +4972,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -5022,7 +4983,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1">
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -5033,7 +4994,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>15</v>
       </c>
@@ -5046,7 +5007,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -5057,7 +5018,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -5068,7 +5029,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1">
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -5079,7 +5040,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>16</v>
       </c>
@@ -5092,7 +5053,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -5103,7 +5064,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -5114,7 +5075,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -5125,7 +5086,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>17</v>
       </c>
@@ -5138,7 +5099,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -5149,7 +5110,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -5160,7 +5121,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -5171,7 +5132,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>18</v>
       </c>
@@ -5184,7 +5145,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5195,7 +5156,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5206,7 +5167,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" thickBot="1">
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5217,7 +5178,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>19</v>
       </c>
@@ -5230,7 +5191,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -5241,7 +5202,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -5252,7 +5213,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -5263,7 +5224,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>20</v>
       </c>
@@ -5276,7 +5237,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -5287,7 +5248,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -5298,7 +5259,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1">
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -5311,6 +5272,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5318,12 +5285,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5332,26 +5293,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="58.875" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
     <col min="3" max="3" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5365,7 +5326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +5340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
@@ -5389,7 +5350,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="20.25">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -5401,7 +5362,7 @@
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="20.25">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -5413,7 +5374,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" ht="20.25">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.25">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
@@ -5439,7 +5400,7 @@
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" ht="20.25">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -5451,12 +5412,12 @@
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
+    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.25">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
@@ -5470,7 +5431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.25">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>27</v>
       </c>
@@ -5482,7 +5443,7 @@
       </c>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:4" ht="20.25">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
@@ -5494,7 +5455,7 @@
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" ht="20.25">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
@@ -5508,7 +5469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.25">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>44</v>
       </c>
@@ -5520,7 +5481,7 @@
       </c>
       <c r="D16" s="25"/>
     </row>
-    <row r="17" spans="1:4" ht="20.25">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>46</v>
       </c>
@@ -5534,12 +5495,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://github.com/CollegeBoreal/INF1039-201-17A-02"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://github.com/CollegeBoreal/INF1040-201-17A-02"/>
-    <hyperlink ref="A13" r:id="rId3" display="https://github.com/CollegeBoreal/INF1006-201-17A-02"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://github.com/CollegeBoreal/INF1023-201-17A-02"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://github.com/CollegeBoreal/INF1045-201-17A-02"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://github.com/CollegeBoreal/INF1044-201-17A-02"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://github.com/CollegeBoreal/INF1039-201-17A-02" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://github.com/CollegeBoreal/INF1040-201-17A-02" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://github.com/CollegeBoreal/INF1006-201-17A-02" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://github.com/CollegeBoreal/INF1023-201-17A-02" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://github.com/CollegeBoreal/INF1045-201-17A-02" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://github.com/CollegeBoreal/INF1044-201-17A-02" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE75C1-7469-6B46-97F9-D20BD9377790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B9EE9A-4459-DC4C-A500-311DFE87A68F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50420" yWindow="600" windowWidth="38540" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50420" yWindow="600" windowWidth="38540" windowHeight="26700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -706,12 +706,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351366</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1562100"/>
+    <xdr:ext cx="2870200" cy="1470025"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -725,8 +725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089025" y="6877050"/>
-          <a:ext cx="2870200" cy="1562100"/>
+          <a:off x="1071033" y="7303558"/>
+          <a:ext cx="2870200" cy="1470025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,11 +836,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>356659</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1543050"/>
+    <xdr:ext cx="2870200" cy="1629832"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6">
@@ -854,8 +854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="8724900"/>
-          <a:ext cx="2870200" cy="1543050"/>
+          <a:off x="1076326" y="8858251"/>
+          <a:ext cx="2870200" cy="1629832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,11 +1004,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>20109</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1552575"/>
+    <xdr:ext cx="2870200" cy="1661584"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7">
@@ -1022,8 +1022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="8724900"/>
-          <a:ext cx="2870200" cy="1552575"/>
+          <a:off x="3978276" y="8837083"/>
+          <a:ext cx="2870200" cy="1661584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,11 +1340,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>29634</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1552575"/>
+    <xdr:ext cx="2870200" cy="1502833"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -1358,8 +1358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="6896100"/>
-          <a:ext cx="2870200" cy="1552575"/>
+          <a:off x="3987801" y="7302500"/>
+          <a:ext cx="2870200" cy="1502833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1690,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>37042</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
@@ -1708,7 +1708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864350" y="7359650"/>
+          <a:off x="6873875" y="7332133"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1832,9 +1832,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>64558</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>30692</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1562100"/>
     <xdr:sp macro="" textlink="">
@@ -1850,7 +1850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9756775" y="7286625"/>
+          <a:off x="9780058" y="7312025"/>
           <a:ext cx="2870200" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3981,7 +3981,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4613,12 +4613,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4626,6 +4620,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4640,7 +4640,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5272,12 +5272,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5285,6 +5279,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B9EE9A-4459-DC4C-A500-311DFE87A68F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E1EA37-F1C5-6844-9B77-A55F4EDA76FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50420" yWindow="600" windowWidth="38540" windowHeight="26700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="640" windowWidth="38540" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -709,9 +709,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>351366</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1470025"/>
+    <xdr:ext cx="2870200" cy="1512359"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -725,8 +725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071033" y="7303558"/>
-          <a:ext cx="2870200" cy="1470025"/>
+          <a:off x="1071033" y="7303557"/>
+          <a:ext cx="2870200" cy="1512359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,12 +835,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>356659</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17993</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1629832"/>
+    <xdr:ext cx="2870200" cy="1545166"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6">
@@ -854,8 +854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076326" y="8858251"/>
-          <a:ext cx="2870200" cy="1629832"/>
+          <a:off x="3976160" y="7281334"/>
+          <a:ext cx="2870200" cy="1545166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,12 +1003,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>20109</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30692</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1661584"/>
+    <xdr:ext cx="2870200" cy="1598083"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7">
@@ -1022,8 +1022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3978276" y="8837083"/>
-          <a:ext cx="2870200" cy="1661584"/>
+          <a:off x="9746192" y="7302500"/>
+          <a:ext cx="2870200" cy="1598083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,12 +1339,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>29634</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347134</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1502833"/>
+    <xdr:ext cx="2870200" cy="1598083"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -1358,8 +1358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987801" y="7302500"/>
-          <a:ext cx="2870200" cy="1502833"/>
+          <a:off x="1066801" y="8879417"/>
+          <a:ext cx="2870200" cy="1598083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1694,7 +1694,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1574800"/>
+    <xdr:ext cx="2870200" cy="1526117"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -1709,7 +1709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6873875" y="7332133"/>
-          <a:ext cx="2870200" cy="1574800"/>
+          <a:ext cx="2870200" cy="1526117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,12 +1831,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>64558</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30692</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11641</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51858</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1562100"/>
+    <xdr:ext cx="2870200" cy="1620309"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 11">
@@ -1850,8 +1850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9780058" y="7312025"/>
-          <a:ext cx="2870200" cy="1562100"/>
+          <a:off x="3969808" y="8878358"/>
+          <a:ext cx="2870200" cy="1620309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2324,10 +2324,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2866353</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>37713</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26171</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3076</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2343,7 +2343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6837989" y="2866349"/>
+          <a:off x="6884171" y="2416076"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2492,10 +2492,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>343475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>27900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8655</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16355</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2511,7 +2511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1070839" y="5384991"/>
+          <a:off x="1093928" y="2429355"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3168,7 +3168,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071033" y="7643283"/>
+          <a:off x="1078730" y="7887661"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3981,7 +3981,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4613,6 +4613,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4620,12 +4626,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4640,7 +4640,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5272,6 +5272,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5279,12 +5285,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E1EA37-F1C5-6844-9B77-A55F4EDA76FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25522C0D-D554-854A-97B8-5706C2E54ABE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="640" windowWidth="38540" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2005,9 +2005,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>201082</xdr:rowOff>
+      <xdr:colOff>17896</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4810</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2023,7 +2023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9739169" y="8773582"/>
+          <a:off x="9762260" y="9160355"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2061,20 +2061,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1084 - 2</a:t>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1084 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2232,7 +2228,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1006 - 2</a:t>
+            <a:t>INF1006 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2390,7 +2386,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1045 - 2</a:t>
+            <a:t>INF1085 - 2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2459,7 +2455,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Administration des serveurs</a:t>
+            <a:t>Administration Linux</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2558,7 +2554,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1045 - 2</a:t>
+            <a:t>INF1085 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2627,7 +2623,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Administration des serveurs</a:t>
+            <a:t>Administration Linux</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2726,7 +2722,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1006 - 2</a:t>
+            <a:t>INF1006 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2876,20 +2872,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1084 - 2</a:t>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1084 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -4613,12 +4605,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4626,6 +4612,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4640,7 +4632,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5272,12 +5264,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5285,6 +5271,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25522C0D-D554-854A-97B8-5706C2E54ABE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD70AC1-09CE-BC41-AF26-EEB025CE40DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="640" windowWidth="38540" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -523,23 +523,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1342,9 +1342,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>347134</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1598083"/>
+    <xdr:ext cx="2870200" cy="1090082"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -1358,8 +1358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066801" y="8879417"/>
-          <a:ext cx="2870200" cy="1598083"/>
+          <a:off x="1066801" y="8879418"/>
+          <a:ext cx="2870200" cy="1090082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,10 +1511,10 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2327275"/>
+    <xdr:ext cx="2870200" cy="1597026"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="ZoneTexte 12">
@@ -1528,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9747250" y="4530724"/>
-          <a:ext cx="2870200" cy="2327275"/>
+          <a:off x="9728200" y="4583641"/>
+          <a:ext cx="2870200" cy="1597026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,7 +1836,7 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>51858</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1620309"/>
+    <xdr:ext cx="2870200" cy="1101725"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 11">
@@ -1851,7 +1851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3969808" y="8878358"/>
-          <a:ext cx="2870200" cy="1620309"/>
+          <a:ext cx="2870200" cy="1101725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,6 +1990,186 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>R. Nthoubanza</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2874433</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1518709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C19E0E-477A-EB4C-950F-2981DC17521F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3953933" y="3815291"/>
+          <a:ext cx="2870200" cy="1518709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1040 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3248</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à la réseautique</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kanaki</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -3973,7 +4153,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4605,6 +4785,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4612,12 +4798,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4632,7 +4812,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5264,6 +5444,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5271,12 +5457,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/CollegeBoreal/19A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD70AC1-09CE-BC41-AF26-EEB025CE40DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB55B4-3606-3B45-BF3C-222DCCFDBD0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="640" windowWidth="37480" windowHeight="26340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -523,23 +523,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1999,9 +1999,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2874433</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>5291</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1518709"/>
@@ -2018,7 +2018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3953933" y="3815291"/>
+          <a:off x="3964516" y="4587874"/>
           <a:ext cx="2870200" cy="1518709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4153,7 +4153,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4785,12 +4785,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4798,6 +4792,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5444,12 +5444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5457,6 +5451,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB55B4-3606-3B45-BF3C-222DCCFDBD0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1EA633-0B7C-3649-AA37-FE73D895FFBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="640" windowWidth="37480" windowHeight="26340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="640" windowWidth="37480" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -2501,9 +2501,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>26171</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3076</xdr:rowOff>
+      <xdr:colOff>5004</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>24242</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2519,7 +2519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6884171" y="2416076"/>
+          <a:off x="6841837" y="9295242"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2668,10 +2668,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8655</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>16355</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347322</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2687,7 +2687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1093928" y="2429355"/>
+          <a:off x="1066989" y="5191605"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4153,7 +4153,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4785,6 +4785,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4792,12 +4798,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4812,7 +4812,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5444,6 +5444,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5451,12 +5457,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19A.xlsx
+++ b/GINX_TimeTable19A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1EA633-0B7C-3649-AA37-FE73D895FFBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342EEBB-98DA-DA40-B343-2B215D851AD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="640" windowWidth="37480" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57160" yWindow="1240" windowWidth="37480" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -2500,10 +2500,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5004</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>24242</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5003</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45409</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2519,7 +2519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6841837" y="9295242"/>
+          <a:off x="9720503" y="6871659"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2668,10 +2668,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>347322</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>196272</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2866156</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58689</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2687,7 +2687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066989" y="5191605"/>
+          <a:off x="3945656" y="6884939"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3489,180 +3489,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28092</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>198198</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5004</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="ZoneTexte 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9772456" y="7033107"/>
-          <a:ext cx="2870200" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1083 - 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Développement d'applications</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2880591</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15589</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:ext cx="2870200" cy="2429161"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="ZoneTexte 20">
@@ -3676,8 +3508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3965864" y="7058316"/>
-          <a:ext cx="2870200" cy="1651000"/>
+          <a:off x="1081425" y="5201421"/>
+          <a:ext cx="2870200" cy="2429161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4785,12 +4617,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4798,6 +4624,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5444,12 +5276,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5457,6 +5283,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
